--- a/media/processed_medha.xlsx
+++ b/media/processed_medha.xlsx
@@ -14,18 +14,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>LAXVEN speed Recorder File: 00022757000.ShortTerm Internal</t>
-  </si>
-  <si>
-    <t>Data Displayed     From     .86  -  1667Km    TO   19/03/25 07:18:36-127Km</t>
-  </si>
-  <si>
-    <t>0-Mem freez,1-PowerOn,2-DownLoad,3-MemErase,4-No CFCard,5-ExtMemFail,7-Sensor1Fail,8-Sensor2Fail</t>
-  </si>
-  <si>
-    <t>,9-ZeroSpeed,A-No Indi/Rec ,B-No Mem ,C-MemFull,D-110% Relay,E-105% Relay,F-OverSpeed,G-&lt;3 Relay,H-CF Inserted,X-Unused</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="49">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>CMS_ID</t>
+  </si>
+  <si>
+    <t>Train_No</t>
+  </si>
+  <si>
+    <t>Loco_No</t>
+  </si>
+  <si>
+    <t>Crew_Name</t>
+  </si>
+  <si>
+    <t>Desig</t>
+  </si>
+  <si>
+    <t>Nom_CLI</t>
+  </si>
+  <si>
+    <t>BFT_BPT</t>
+  </si>
+  <si>
+    <t>Cum_Dist_Run</t>
+  </si>
+  <si>
+    <t>Cum_Dist_LP</t>
+  </si>
+  <si>
+    <t>Run_No</t>
+  </si>
+  <si>
+    <t>Run_Sum</t>
+  </si>
+  <si>
+    <t>Rev_Dist</t>
+  </si>
+  <si>
+    <t>Pin_Point</t>
+  </si>
+  <si>
+    <t>BFT</t>
+  </si>
+  <si>
+    <t>BFT_END</t>
+  </si>
+  <si>
+    <t>BPT</t>
+  </si>
+  <si>
+    <t>BPT_END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/03/25 </t>
+  </si>
+  <si>
+    <t>11:16:06</t>
+  </si>
+  <si>
+    <t>11:37:09</t>
+  </si>
+  <si>
+    <t>11:37:10</t>
+  </si>
+  <si>
+    <t>11:37:22</t>
+  </si>
+  <si>
+    <t>11:37:34</t>
+  </si>
+  <si>
+    <t>11:37:35</t>
+  </si>
+  <si>
+    <t>11:37:36</t>
+  </si>
+  <si>
+    <t>11:37:37</t>
+  </si>
+  <si>
+    <t>11:37:38</t>
+  </si>
+  <si>
+    <t>11:37:39</t>
+  </si>
+  <si>
+    <t>11:37:40</t>
+  </si>
+  <si>
+    <t>11:37:41</t>
+  </si>
+  <si>
+    <t>11:37:42</t>
+  </si>
+  <si>
+    <t>11:37:43</t>
+  </si>
+  <si>
+    <t>11:37:44</t>
+  </si>
+  <si>
+    <t>11:37:45</t>
+  </si>
+  <si>
+    <t>11:37:46</t>
+  </si>
+  <si>
+    <t>11:37:47</t>
+  </si>
+  <si>
+    <t>11:37:48</t>
+  </si>
+  <si>
+    <t>11:37:49</t>
+  </si>
+  <si>
+    <t>11:47:33</t>
+  </si>
+  <si>
+    <t>NDB1327</t>
+  </si>
+  <si>
+    <t>RAILSPL</t>
+  </si>
+  <si>
+    <t>SUBHASH SONI</t>
+  </si>
+  <si>
+    <t>LOCO PILOT GOODS</t>
+  </si>
+  <si>
+    <t>R K SAINI</t>
+  </si>
+  <si>
+    <t>1000 Meters</t>
   </si>
 </sst>
 </file>
@@ -383,30 +518,1140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>13989</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>13989</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>13989</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>13989</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>13989</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>13989</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13990</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>13990</v>
+      </c>
+      <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>13990</v>
+      </c>
+      <c r="N10">
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>13990</v>
+      </c>
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>13990</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13991</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13991</v>
+      </c>
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13991</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="M16">
+        <v>13992</v>
+      </c>
+      <c r="N16">
+        <v>11</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>13992</v>
+      </c>
+      <c r="N17">
+        <v>11</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>13993</v>
+      </c>
+      <c r="N18">
+        <v>11</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>13993</v>
+      </c>
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>13994</v>
+      </c>
+      <c r="N20">
+        <v>11</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>13994</v>
+      </c>
+      <c r="N21">
+        <v>11</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>13994</v>
+      </c>
+      <c r="N22">
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>13995</v>
+      </c>
+      <c r="N23">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>13995</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>13995</v>
+      </c>
+      <c r="N25">
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
